--- a/data/2020_07_02_aHL_outside_MsbA.xlsx
+++ b/data/2020_07_02_aHL_outside_MsbA.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitaroychoudhury/git/ug_murray/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DA2A11-EACF-1846-8BF3-5D6F6E3D3047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8E4851-B054-E043-B870-380D6459709D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33340" yWindow="-460" windowWidth="17120" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33340" yWindow="-460" windowWidth="17120" windowHeight="17660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Outline" sheetId="2" r:id="rId1"/>
-    <sheet name="gfp61" sheetId="4" r:id="rId2"/>
-    <sheet name="IDs" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="gfp61" sheetId="4" r:id="rId3"/>
+    <sheet name="IDs" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.extract">Outline!$I$16</definedName>
@@ -1291,7 +1292,7 @@
   </sheetPr>
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2859,6 +2860,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19195FBA-FF7E-FF48-9CDF-F8F16548E49E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J122"/>
   <sheetViews>
@@ -6424,11 +6437,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
